--- a/biology/Botanique/Eucalyptus_crebra/Eucalyptus_crebra.xlsx
+++ b/biology/Botanique/Eucalyptus_crebra/Eucalyptus_crebra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus crebra est un Eucalyptus de grande taille (entre 25 et 35 mètres).
 L'écorce rugueuse grise est tachetée de jaune et d'orange. Les feuilles lancéolées étroites sont d'un gris-vert uni et mesurent 7 à 15 cm de longueur sur 0,9 à 1,7 cm de largeur. Les petites fleurs blanches apparaissent de la fin de l'automne au printemps et sont suivies par des petites gousses.
@@ -513,7 +525,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans l'est de l'Australie, du sud-ouest de Picton au nord de Sydney en Nouvelle-Galles du Sud jusqu'à proximité de Cairns dans le Queensland. Il pousse dans des sols sablonneux.
 </t>
